--- a/2021Toy/Assets/Resources/Skill.xlsx
+++ b/2021Toy/Assets/Resources/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_unityP\toy\2021Toy\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD46EA6F-658D-40D9-8F4C-010FDF87D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713D27F-2BDD-41ED-AA04-DDC6097EFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="3390" windowWidth="14970" windowHeight="12210" xr2:uid="{220719FA-7F7C-45CC-BB0C-19F911BABE8E}"/>
+    <workbookView xWindow="12675" yWindow="2175" windowWidth="23550" windowHeight="12210" xr2:uid="{220719FA-7F7C-45CC-BB0C-19F911BABE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>평타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>샷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,17 +58,51 @@
     <t>name</t>
   </si>
   <si>
-    <t>item2</t>
-  </si>
-  <si>
-    <t>item3</t>
-  </si>
-  <si>
-    <t>없어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
+    <t>shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발차기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn sword attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회전하며 이동한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,71 +477,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B86EF-6D4A-45D8-922D-76C1453EB271}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -520,8 +568,103 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2021Toy/Assets/Resources/Skill.xlsx
+++ b/2021Toy/Assets/Resources/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_unityP\toy\2021Toy\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713D27F-2BDD-41ED-AA04-DDC6097EFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31808DA-5E8B-41FE-8FB3-1D883D714F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="2175" windowWidth="23550" windowHeight="12210" xr2:uid="{220719FA-7F7C-45CC-BB0C-19F911BABE8E}"/>
+    <workbookView xWindow="12795" yWindow="1995" windowWidth="23550" windowHeight="12210" xr2:uid="{220719FA-7F7C-45CC-BB0C-19F911BABE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>샷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,26 @@
   </si>
   <si>
     <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼을 들고있는 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 타입 2의 발차기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kick2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B86EF-6D4A-45D8-922D-76C1453EB271}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,10 +681,73 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2021Toy/Assets/Resources/Skill.xlsx
+++ b/2021Toy/Assets/Resources/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_unityP\toy\2021Toy\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31808DA-5E8B-41FE-8FB3-1D883D714F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F3C10-B0C7-4E49-B475-86AFD0E294FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12795" yWindow="1995" windowWidth="23550" windowHeight="12210" xr2:uid="{220719FA-7F7C-45CC-BB0C-19F911BABE8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>샷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>kick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,15 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B86EF-6D4A-45D8-922D-76C1453EB271}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -515,20 +522,23 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" t="s">
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -538,20 +548,23 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
       <c r="G2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -561,20 +574,23 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
       <c r="G3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -587,17 +603,20 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -607,17 +626,20 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -627,20 +649,23 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -650,17 +675,20 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -670,17 +698,20 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -690,20 +721,23 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -713,20 +747,23 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -736,16 +773,19 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
     </row>
